--- a/py/apps/web-scraper/ACloudGuru-aws-certified-cloud-practitioner.xlsx
+++ b/py/apps/web-scraper/ACloudGuru-aws-certified-cloud-practitioner.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivo.costa/Documents/Trainer/temp/Playground/py/apps/web-scraper/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285428F0-1CCF-1C4D-9EF4-837B4496BE91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -424,8 +430,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +494,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -534,7 +548,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -566,9 +580,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,6 +632,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -775,14 +825,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="60.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -846,7 +901,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -878,7 +933,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -910,7 +965,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -942,7 +997,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,7 +1029,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1006,7 +1061,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1038,7 +1093,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1070,7 +1125,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1102,7 +1157,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1134,7 +1189,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1166,7 +1221,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1198,7 +1253,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1230,7 +1285,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1262,7 +1317,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1294,7 +1349,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1326,7 +1381,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1358,7 +1413,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1390,7 +1445,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1422,7 +1477,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1454,7 +1509,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1486,7 +1541,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1518,7 +1573,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1550,7 +1605,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1582,7 +1637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1614,7 +1669,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1646,7 +1701,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1678,7 +1733,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1710,7 +1765,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1742,7 +1797,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1774,7 +1829,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1806,7 +1861,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1838,7 +1893,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1870,7 +1925,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1902,7 +1957,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1934,7 +1989,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1966,7 +2021,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1998,7 +2053,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2030,7 +2085,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2062,7 +2117,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2094,7 +2149,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2126,7 +2181,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2158,7 +2213,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2190,7 +2245,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2222,7 +2277,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2254,7 +2309,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2286,7 +2341,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2318,7 +2373,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2350,7 +2405,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2382,7 +2437,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2414,7 +2469,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2446,7 +2501,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2478,7 +2533,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2510,7 +2565,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2542,7 +2597,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2574,7 +2629,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2606,7 +2661,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2638,7 +2693,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2670,7 +2725,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2702,7 +2757,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2734,7 +2789,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2766,7 +2821,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
